--- a/ITMO.2020.WF.SyatcM.ExamTask/ITMO.2020.WF.SyatcM.ExamTask.GasProp/source2.xlsx
+++ b/ITMO.2020.WF.SyatcM.ExamTask/ITMO.2020.WF.SyatcM.ExamTask.GasProp/source2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Max\Programming\03_WIN_C#_Smolyaninov\Labs\ITMO.WinFormsCourses.Syatc00M.Labs\ITMO.2020.WF.SyatcM.ExamTask\ITMO.2020.WF.SyatcM.ExamTask.GasProp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t xml:space="preserve"> №  </t>
   </si>
@@ -485,12 +485,6 @@
   </si>
   <si>
     <t>** Значения в желтых полях не трогаем.</t>
-  </si>
-  <si>
-    <t>Плотность(0°С, 101325 Па), кг/м3</t>
-  </si>
-  <si>
-    <t>Газовая постоянная смеси, Дж/(кг*К)</t>
   </si>
 </sst>
 </file>
@@ -1118,12 +1112,8 @@
         <v>97.527500000000003</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="18">
-        <v>0.73597653315094136</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
@@ -1170,12 +1160,8 @@
         <v>0.13969999999999999</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="18">
-        <v>504.02426004731024</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
